--- a/Data/raw/pitcher/김성훈_1998-02-04.xlsx
+++ b/Data/raw/pitcher/김성훈_1998-02-04.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2018" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2019" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,22 +51,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -489,12 +487,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2263,7 +2261,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2334,12 +2332,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2706,6 +2704,8 @@
           <t>0.001</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -2843,6 +2843,8 @@
           <t>0.021</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>4일</t>
@@ -2980,6 +2982,8 @@
           <t>0.038</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>1일</t>
@@ -3117,6 +3121,8 @@
           <t>0.000</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>5일</t>
@@ -3254,6 +3260,8 @@
           <t>0.000</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -3391,6 +3399,8 @@
           <t>0.008</t>
         </is>
       </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
           <t>1일</t>
@@ -3528,6 +3538,8 @@
           <t>0.003</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
           <t>2일</t>
@@ -3665,6 +3677,8 @@
           <t>-0.013</t>
         </is>
       </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>2일</t>
@@ -3802,6 +3816,8 @@
           <t>0.008</t>
         </is>
       </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
           <t>4일</t>
@@ -3939,6 +3955,8 @@
           <t>-0.011</t>
         </is>
       </c>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
           <t>5일</t>
@@ -4076,6 +4094,8 @@
           <t>-0.275</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -4213,6 +4233,8 @@
           <t>-0.014</t>
         </is>
       </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -4350,6 +4372,8 @@
           <t>0.002</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -4487,2263 +4511,6 @@
           <t>-0.014</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03-27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L 4:9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.308</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.526</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.142</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-2.51</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>-0.276</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04-28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 4:10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-02</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L 4:5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.222</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05-03</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L 4:5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.190</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05-08</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>@SK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 2:17</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.192</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.733</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05-16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>키움</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>W 15:6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.200</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05-17</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>L 2:5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.182</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.008</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05-19</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>L 0:5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.189</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.900</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05-21</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>L 3:9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.205</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.619</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-0.013</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05-25</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>L 4:7</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.200</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.008</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05-30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>L 2:3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.213</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1.167</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-0.011</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>06-12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L 6:9</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.246</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.471</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.899</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-2.98</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-0.275</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L 1:5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.661</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-0.014</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>08-15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>@롯데</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L 5:11</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.650</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L 3:13</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.438</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1.304</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-2.34</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>-0.014</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
@@ -6753,6 +4520,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>